--- a/src/main/resources/A3/E6/VGR1_BMX055_Acceleration.xlsx
+++ b/src/main/resources/A3/E6/VGR1_BMX055_Acceleration.xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE115526-1A53-4D9C-88F3-45F6E1DC2D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06ECF228-9B62-4FD6-9A16-5B0D4682A7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$I$101</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
@@ -1315,22 +1318,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" customWidth="1"/>
-    <col min="9" max="9" width="27.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
@@ -1359,7 +1363,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>204</v>
       </c>
@@ -1388,7 +1392,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>207</v>
       </c>
@@ -1417,7 +1421,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -1446,7 +1450,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1475,7 +1479,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -1504,7 +1508,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -1533,7 +1537,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>107</v>
       </c>
@@ -1562,7 +1566,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>108</v>
       </c>
@@ -1591,7 +1595,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>109</v>
       </c>
@@ -1620,7 +1624,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -1649,7 +1653,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>111</v>
       </c>
@@ -1678,7 +1682,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>112</v>
       </c>
@@ -1707,7 +1711,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -1736,7 +1740,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>114</v>
       </c>
@@ -1765,7 +1769,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>115</v>
       </c>
@@ -1794,7 +1798,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>116</v>
       </c>
@@ -1823,7 +1827,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>117</v>
       </c>
@@ -1852,7 +1856,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>118</v>
       </c>
@@ -1881,7 +1885,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>119</v>
       </c>
@@ -1910,7 +1914,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>120</v>
       </c>
@@ -1939,7 +1943,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>121</v>
       </c>
@@ -1968,7 +1972,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>122</v>
       </c>
@@ -1997,7 +2001,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>123</v>
       </c>
@@ -2026,7 +2030,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>124</v>
       </c>
@@ -2055,7 +2059,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>125</v>
       </c>
@@ -2084,7 +2088,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>126</v>
       </c>
@@ -2113,7 +2117,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>127</v>
       </c>
@@ -2142,7 +2146,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>128</v>
       </c>
@@ -2171,7 +2175,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>129</v>
       </c>
@@ -2200,7 +2204,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>130</v>
       </c>
@@ -2229,7 +2233,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>131</v>
       </c>
@@ -2258,7 +2262,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>132</v>
       </c>
@@ -2287,7 +2291,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>133</v>
       </c>
@@ -2316,7 +2320,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>134</v>
       </c>
@@ -2345,7 +2349,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>135</v>
       </c>
@@ -2374,7 +2378,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>136</v>
       </c>
@@ -2403,7 +2407,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>137</v>
       </c>
@@ -2432,7 +2436,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>138</v>
       </c>
@@ -2461,7 +2465,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>139</v>
       </c>
@@ -2490,7 +2494,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>140</v>
       </c>
@@ -2519,7 +2523,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>141</v>
       </c>
@@ -2548,7 +2552,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>142</v>
       </c>
@@ -2577,7 +2581,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>143</v>
       </c>
@@ -2606,7 +2610,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>144</v>
       </c>
@@ -2635,7 +2639,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>145</v>
       </c>
@@ -2664,7 +2668,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>146</v>
       </c>
@@ -2693,7 +2697,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>147</v>
       </c>
@@ -2722,7 +2726,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>148</v>
       </c>
@@ -2751,7 +2755,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>149</v>
       </c>
@@ -2780,7 +2784,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>150</v>
       </c>
@@ -2809,7 +2813,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>151</v>
       </c>
@@ -2838,7 +2842,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>152</v>
       </c>
@@ -2867,7 +2871,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>153</v>
       </c>
@@ -2896,7 +2900,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>154</v>
       </c>
@@ -2925,7 +2929,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>155</v>
       </c>
@@ -2954,7 +2958,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>156</v>
       </c>
@@ -2983,7 +2987,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>157</v>
       </c>
@@ -3012,7 +3016,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>158</v>
       </c>
@@ -3041,7 +3045,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>159</v>
       </c>
@@ -3070,7 +3074,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>160</v>
       </c>
@@ -3099,7 +3103,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>161</v>
       </c>
@@ -3128,7 +3132,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>162</v>
       </c>
@@ -3157,7 +3161,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>163</v>
       </c>
@@ -3186,7 +3190,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>164</v>
       </c>
@@ -3215,7 +3219,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>165</v>
       </c>
@@ -3244,7 +3248,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>166</v>
       </c>
@@ -3273,7 +3277,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>167</v>
       </c>
@@ -3302,7 +3306,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>168</v>
       </c>
@@ -3331,7 +3335,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>169</v>
       </c>
@@ -3360,7 +3364,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>170</v>
       </c>
@@ -3389,7 +3393,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>171</v>
       </c>
@@ -3418,7 +3422,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>172</v>
       </c>
@@ -3447,7 +3451,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>173</v>
       </c>
@@ -3476,7 +3480,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>174</v>
       </c>
@@ -3505,7 +3509,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>175</v>
       </c>
@@ -3534,7 +3538,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>176</v>
       </c>
@@ -3563,7 +3567,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>177</v>
       </c>
@@ -3592,7 +3596,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>178</v>
       </c>
@@ -3621,7 +3625,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>179</v>
       </c>
@@ -3650,7 +3654,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>180</v>
       </c>
@@ -3679,7 +3683,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>181</v>
       </c>
@@ -3708,7 +3712,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>182</v>
       </c>
@@ -3737,7 +3741,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>183</v>
       </c>
@@ -3766,7 +3770,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>184</v>
       </c>
@@ -3795,7 +3799,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>185</v>
       </c>
@@ -3824,7 +3828,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>186</v>
       </c>
@@ -3853,7 +3857,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>187</v>
       </c>
@@ -3882,7 +3886,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>188</v>
       </c>
@@ -3911,7 +3915,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>189</v>
       </c>
@@ -3940,7 +3944,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>190</v>
       </c>
@@ -3969,7 +3973,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>191</v>
       </c>
@@ -3998,7 +4002,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>192</v>
       </c>
@@ -4027,7 +4031,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>193</v>
       </c>
@@ -4056,7 +4060,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>194</v>
       </c>
@@ -4085,7 +4089,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>195</v>
       </c>
@@ -4114,7 +4118,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>196</v>
       </c>
@@ -4143,7 +4147,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>197</v>
       </c>
@@ -4172,7 +4176,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>198</v>
       </c>
@@ -4201,7 +4205,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>199</v>
       </c>
@@ -4230,7 +4234,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>200</v>
       </c>
@@ -4260,6 +4264,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
